--- a/database/db.xlsx
+++ b/database/db.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joost\Documents\SortingHat\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D91E0-3B79-431E-A260-6BD3B906C2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>naam</t>
   </si>
@@ -33,61 +38,24 @@
   </si>
   <si>
     <t>uitkomst</t>
-  </si>
-  <si>
-    <t>wwww</t>
-  </si>
-  <si>
-    <t>Forensisch ICT</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>testwerk pls</t>
-  </si>
-  <si>
-    <t>werk nu</t>
-  </si>
-  <si>
-    <t>testse</t>
-  </si>
-  <si>
-    <t>Yayyeet</t>
-  </si>
-  <si>
-    <t>youre a wizzard harry</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>tewt</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,15 +71,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,19 +376,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,260 +405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27</v>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" t="n">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>15</v>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>57</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>27</v>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>23</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>62</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>33</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>112</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>95</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>55</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>55</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20</v>
-      </c>
-      <c r="C10" t="n">
-        <v>60</v>
-      </c>
-      <c r="D10" t="n">
-        <v>33</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/db.xlsx
+++ b/database/db.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>naam</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>vragen.html</t>
   </si>
 </sst>
 </file>
@@ -685,6 +688,134 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/database/db.xlsx
+++ b/database/db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Github\SortingHat\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joost\Documents\SortingHat\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08EF41A-32C4-4775-944F-D6D75C539355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D91E0-3B79-431E-A260-6BD3B906C2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,7 +380,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="A2:F21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/database/db.xlsx
+++ b/database/db.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joost\Documents\SortingHat\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D91E0-3B79-431E-A260-6BD3B906C2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="db" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>naam</t>
   </si>
@@ -38,24 +33,37 @@
   </si>
   <si>
     <t>uitkomst</t>
+  </si>
+  <si>
+    <t>Joost</t>
+  </si>
+  <si>
+    <t>[{'se': 186.95652173913044}, {'fict': 30.434782608695656}, {'iat': 19.130434782608695}, {'bdam': 13.846153846153847}]</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>[{'se': 45.21739130434783}, {'fict': 26.08695652173913}, {'iat': 17.391304347826086}, {'bdam': 13.846153846153847}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,24 +79,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -376,16 +375,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +407,46 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>215</v>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/db.xlsx
+++ b/database/db.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>naam</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>[{'se': 45.21739130434783}, {'fict': 26.08695652173913}, {'iat': 17.391304347826086}, {'bdam': 13.846153846153847}]</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>[{'se': 53.91304347826087}, {'iat': 34.78260869565217}, {'bdam': 23.076923076923077}, {'fict': 20.0}]</t>
+  </si>
+  <si>
+    <t>megey</t>
+  </si>
+  <si>
+    <t>[{'se': 52.17391304347826}, {'bdam': 23.076923076923077}, {'fict': 21.73913043478261}, {'iat': 17.391304347826086}]</t>
+  </si>
+  <si>
+    <t>ytests</t>
+  </si>
+  <si>
+    <t>testtse</t>
   </si>
 </sst>
 </file>
@@ -447,6 +465,82 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>